--- a/biology/Botanique/Sporobolus_indicus/Sporobolus_indicus.xlsx
+++ b/biology/Botanique/Sporobolus_indicus/Sporobolus_indicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporobolus indicus, la sporobole tenace, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire des zones tropicales et subtropicales du continent américain. Ce sont des plantes herbacées vivaces, cespiteuses, rhizomateuses, aux tiges dressées pouvant atteindre 1 m de haut.
 C'est une espèce envahissante qui s'est répandue dans de nombreuses régions tempérées chaudes ou tropicales du monde.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporobolus indicus est une plante herbacée vivace, rhizomateuse, cespiteuse (poussant en touffes), pouvant dépasser un mètre de haut, très variable sur le plan morphologique. Ses tiges ou chaumes à section circulaire de 2 à 5 mm de diamètre, sont glabres, non ramifiées, fermes, robustes, dressées, plus ou moins raides, élancées, solitaires ou formant de petites touffes.
-Les feuilles effilées jusqu'à la longue pointe filiforme, ont une gaine glabre, légèrement comprimée et carénée. Le limbe, linéaire, de 6 à 20 cm de long sur 3 à 5 mm de large, glabre, acuminé, à préfoliaison habituellement pliée ou enroulée, de couleur vert foncé, présente une ligule formée d'une ligne de poils très courts[2],[3].
-La floraison a lieu de juin à octobre[4]. L'inflorescence est une panicule spiciforme dense (faux épi), dressée ou penchée, de 6 à 20 cm de long sur 4 à 7 mm de diamètre. Cette panicule variable présente des ramifications primaires appliquées sur l'axe, ou lâches, ascendantes à étalées. Les épillets de 2 mm de long environ, très nombreux, apprimés et brièvement pédicellés, sont uniflores.
+Les feuilles effilées jusqu'à la longue pointe filiforme, ont une gaine glabre, légèrement comprimée et carénée. Le limbe, linéaire, de 6 à 20 cm de long sur 3 à 5 mm de large, glabre, acuminé, à préfoliaison habituellement pliée ou enroulée, de couleur vert foncé, présente une ligule formée d'une ligne de poils très courts,.
+La floraison a lieu de juin à octobre. L'inflorescence est une panicule spiciforme dense (faux épi), dressée ou penchée, de 6 à 20 cm de long sur 4 à 7 mm de diamètre. Cette panicule variable présente des ramifications primaires appliquées sur l'axe, ou lâches, ascendantes à étalées. Les épillets de 2 mm de long environ, très nombreux, apprimés et brièvement pédicellés, sont uniflores.
 Les fleurs sont sous-tendues par des glumes inégales ou sub-égales d'environ 1 mm de long, la glume supérieure est aiguë. La lemme est subulée à aiguë, la paléole également aiguë présente deux nervures. Les fleurs comptent trois étamines.
-Les grains, ou caryopses, d'environ 1 mm de long, sont rouge foncé[2],[3].
+Les grains, ou caryopses, d'environ 1 mm de long, sont rouge foncé,.
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Sporobolus indicus se situe vraisemblablement en Amérique, depuis le sud des États-Unis (Alabama, Georgie, Floride, Louisiane, Mississippi, Caroline du Nord et du Sud, Texas, Virginie) et le Mexique, l'Amérique centrale (Belize, Costa Rica, Honduras, Nicaragua, Panamá, El Salvador, Guatemala, ) et les Caraïbes (Bahamas, Bermudes, Cuba, République dominicaine, Haïti, Jamaïque, Porto Rico, îles Sous-le-Vent, Trinité-et-Tobago, Turks-et-Caicos) jusqu'au sud de l'Amérique du Sud (Argentine, Bolivie, Brésil, Chili, Colombie, Équateur, Paraguay, Pérou,  Uruguay, Venezuela) ainsi que dans les îles Desventuradas et les Galápagos[5].
-Cependant certains auteurs situent son origine en Afrique australe[3] (à noter qu'une espèce voisine d'origine africaine (Sporobolus indicus var. capensis Engelm. ou Sporobolus africanus (Poir.) Robyns &amp; Tournay) s'est également répandue dans les régions tropicales)[6].
-De nos jours, Sporobolus indicus a une répartition pantropicale, s'étendant aussi à des zones tempérées chaudes comme le sud de l'Europe. Elle a été introduite notamment dans divers États des États-Unis (Arkansas, Californie, Illinois, Kentucky,  Maryland, Michigan, Missouri, Oklahoma, Oregon, New Jersey, New York, Pennsylvanie, Tennessee), en Europe méridionale (Autriche, Bulgarie, Espagne, France, Grèce, Italie, Portugal), au Maroc, dans les îles de l'Atlantique (Ascension, Açores, Canaries, Madère, Gulf of Guinea Is.,), du Pacifique (Fidji, Hawaï, Nouvelle-Calédonie, Niue, Norfolk, îles de la Société) et de l'océan indien (Madagascar, Maurice, La Réunion) en Asie du Sud-Est (Assam, Bangladesh, Birmanie, Cambodge, Java, Laos, Philippines, Sumatra, Petites îles de la Sonde, Thaïlande, Viêt Nam), en Australie (Queensland) et en Nouvelle-Guinée[5].
-En France, la sporobole tenace aurait été signalée pour la première fois vers 1882 à Bayonne. L'espèce se rencontre actuellement dans la moitié sud du pays et sur la côte Atlantique jusqu'en Bretagne. Elle est commune dans le Sud-Ouest[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Sporobolus indicus se situe vraisemblablement en Amérique, depuis le sud des États-Unis (Alabama, Georgie, Floride, Louisiane, Mississippi, Caroline du Nord et du Sud, Texas, Virginie) et le Mexique, l'Amérique centrale (Belize, Costa Rica, Honduras, Nicaragua, Panamá, El Salvador, Guatemala, ) et les Caraïbes (Bahamas, Bermudes, Cuba, République dominicaine, Haïti, Jamaïque, Porto Rico, îles Sous-le-Vent, Trinité-et-Tobago, Turks-et-Caicos) jusqu'au sud de l'Amérique du Sud (Argentine, Bolivie, Brésil, Chili, Colombie, Équateur, Paraguay, Pérou,  Uruguay, Venezuela) ainsi que dans les îles Desventuradas et les Galápagos.
+Cependant certains auteurs situent son origine en Afrique australe (à noter qu'une espèce voisine d'origine africaine (Sporobolus indicus var. capensis Engelm. ou Sporobolus africanus (Poir.) Robyns &amp; Tournay) s'est également répandue dans les régions tropicales).
+De nos jours, Sporobolus indicus a une répartition pantropicale, s'étendant aussi à des zones tempérées chaudes comme le sud de l'Europe. Elle a été introduite notamment dans divers États des États-Unis (Arkansas, Californie, Illinois, Kentucky,  Maryland, Michigan, Missouri, Oklahoma, Oregon, New Jersey, New York, Pennsylvanie, Tennessee), en Europe méridionale (Autriche, Bulgarie, Espagne, France, Grèce, Italie, Portugal), au Maroc, dans les îles de l'Atlantique (Ascension, Açores, Canaries, Madère, Gulf of Guinea Is.,), du Pacifique (Fidji, Hawaï, Nouvelle-Calédonie, Niue, Norfolk, îles de la Société) et de l'océan indien (Madagascar, Maurice, La Réunion) en Asie du Sud-Est (Assam, Bangladesh, Birmanie, Cambodge, Java, Laos, Philippines, Sumatra, Petites îles de la Sonde, Thaïlande, Viêt Nam), en Australie (Queensland) et en Nouvelle-Guinée.
+En France, la sporobole tenace aurait été signalée pour la première fois vers 1882 à Bayonne. L'espèce se rencontre actuellement dans la moitié sud du pays et sur la côte Atlantique jusqu'en Bretagne. Elle est commune dans le Sud-Ouest.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sporobole fertile, sporobole tenace, sporobole d’Inde[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sporobole fertile, sporobole tenace, sporobole d’Inde.</t>
         </is>
       </c>
     </row>
@@ -611,10 +629,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sporobolus indicus est l'espèce type du genre Sporobolus[9].
-Certains auteurs placent Sporobolus indicus au sein d'un complexe d'espèces qui regroupe notamment les 11 espèces suivantes. Ces espèces, dont le statut taxinomique n'est pas clair, sont très similaires sur le plan morphologique. Des recherches cytogénétiques seraient nécessaires pour une meilleure compréhension de ce complexe au sein duquel on a relevé cinq nombres chromosomiques différents[10] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporobolus indicus est l'espèce type du genre Sporobolus.
+Certains auteurs placent Sporobolus indicus au sein d'un complexe d'espèces qui regroupe notamment les 11 espèces suivantes. Ces espèces, dont le statut taxinomique n'est pas clair, sont très similaires sur le plan morphologique. Des recherches cytogénétiques seraient nécessaires pour une meilleure compréhension de ce complexe au sein duquel on a relevé cinq nombres chromosomiques différents : 
 Sporobolus jacquemontii Kunth
 Sporobolus pyramidalis Beauv.
 Sporobolus natalensis (Steud.) Dur. &amp; Schinz
@@ -626,10 +646,45 @@
 Sporobolus fertilis (Steud.) W.D. Clayton
 Sporobolus indicus (L.) R. Br.
 Sporobolus minor Trin. ex Kunth
-Synonymes
-Selon The Plant List            (12 juin 2019)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sporobolus_indicus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sporobolus_indicus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 juin 2019) :
 Agrostis elongata Lam.
-Agrostis indica L. (basionyme[11])
+Agrostis indica L. (basionyme)
 Agrostis orientalis Nees
 Agrostis tenacissima L. f.
 Andropogon intortum Crantz
@@ -642,15 +697,50 @@
 Sporobolus lamarckii Desv. ex Ham.
 Sporobolus orientalis (Nees) Kunth
 Sporobolus tenacissimus (L.f.) P.Beauv.
-Sporobolus tenacissimus auct.[12]
+Sporobolus tenacissimus auct.
 Vilfa angusta Buckley
 Vilfa berteroana Trin.
 Vilfa elongata (Lam.) P.Beauv.
 Vilfa indica (L.) Trin. ex Steud.
 Vilfa orientalis Nees ex Trin.
 Vilfa tenacissima (L.f.) Kunth
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (12 juin 2019)[13] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sporobolus_indicus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sporobolus_indicus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (12 juin 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Sporobolus indicus subsp. indicus
 Sporobolus indicus subsp. pallidiorus (T. Koyama) T. Koyama
